--- a/Excel/PlayerNumericConfig.xlsx
+++ b/Excel/PlayerNumericConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="11940" tabRatio="809"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerNumericConfig" sheetId="6" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>cs</t>
   </si>
@@ -34,6 +34,9 @@
     <t>s是否用于加成点</t>
   </si>
   <si>
+    <t>是否是百分比</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>isAddPoint</t>
   </si>
   <si>
+    <t>isPrecent</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -82,6 +88,15 @@
     <t>护甲追加</t>
   </si>
   <si>
+    <t>闪避</t>
+  </si>
+  <si>
+    <t>闪避追加</t>
+  </si>
+  <si>
+    <t>暴击率</t>
+  </si>
+  <si>
     <t>#直接使用没有加成的属性</t>
   </si>
   <si>
@@ -110,6 +125,12 @@
   </si>
   <si>
     <t>经验值</t>
+  </si>
+  <si>
+    <t>存活状态</t>
+  </si>
+  <si>
+    <t>背包容量</t>
   </si>
 </sst>
 </file>
@@ -1078,13 +1099,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
@@ -1116,7 +1137,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" ht="16.5" spans="1:7">
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1134,48 +1155,57 @@
       <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:7">
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1183,12 +1213,12 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" customFormat="1" ht="16.5" spans="3:7">
+    <row r="7" customFormat="1" ht="16.5" spans="3:8">
       <c r="C7" s="2">
         <v>1011</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2">
         <v>100</v>
@@ -1199,13 +1229,16 @@
       <c r="G7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="16.5" spans="3:7">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="16.5" spans="3:8">
       <c r="C8" s="2">
         <v>1012</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1216,13 +1249,16 @@
       <c r="G8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="3:7">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="16.5" spans="3:8">
       <c r="C9" s="2">
         <v>1002</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2">
         <v>200</v>
@@ -1233,13 +1269,16 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" ht="16.5" spans="3:7">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="3:8">
       <c r="C10" s="2">
         <v>1013</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1">
         <v>200</v>
@@ -1250,13 +1289,16 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" ht="16.5" spans="3:7">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="3:8">
       <c r="C11" s="2">
         <v>1004</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -1267,13 +1309,16 @@
       <c r="G11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" ht="16.5" spans="3:7">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="3:8">
       <c r="C12" s="2">
         <v>1014</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1">
         <v>100</v>
@@ -1284,13 +1329,16 @@
       <c r="G12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" ht="16.5" spans="3:7">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="3:8">
       <c r="C13" s="2">
         <v>1015</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1">
         <v>100</v>
@@ -1301,13 +1349,16 @@
       <c r="G13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" ht="16.5" spans="3:7">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="3:8">
       <c r="C14" s="2">
         <v>1016</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1318,162 +1369,292 @@
       <c r="G14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7">
-      <c r="C16" s="1">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="3:8">
+      <c r="C15" s="2">
+        <v>1017</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="3:8">
+      <c r="C16" s="2">
+        <v>1018</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="3:8">
+      <c r="C17" s="2">
+        <v>1019</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="1">
         <v>3001</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" s="1">
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="1">
         <v>3002</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="1">
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="1">
         <v>3003</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="1">
+      <c r="D25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="1">
         <v>3004</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="1">
+      <c r="D26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="1">
         <v>3005</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1">
         <v>5</v>
       </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="1">
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="1">
         <v>3006</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="1">
         <v>5</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="1">
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="1">
         <v>3007</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" s="1">
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="1">
         <v>3008</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="1">
+      <c r="D30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="1">
         <v>3009</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="1">
+        <v>3013</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="1">
+        <v>3015</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="1">
+        <v>500</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
         <v>0</v>
       </c>
     </row>
